--- a/docs/Humanoids/ieeeconf/analysis.xlsx
+++ b/docs/Humanoids/ieeeconf/analysis.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Questionnaire" localSheetId="0">Sheet1!$A$1:$AG$11</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>Timestamp</t>
   </si>
@@ -178,9 +179,6 @@
     <t>no detection of the voice trigger start</t>
   </si>
   <si>
-    <t>Less than 30 minutes</t>
-  </si>
-  <si>
     <t>may be using an external microphone in order to improve voice detection</t>
   </si>
   <si>
@@ -262,9 +260,6 @@
     <t>2015/07/07 12:02:08 PM GMT+9</t>
   </si>
   <si>
-    <t>Less than an hour</t>
-  </si>
-  <si>
     <t>Ease of use</t>
   </si>
   <si>
@@ -275,6 +270,60 @@
   </si>
   <si>
     <t>Learnability</t>
+  </si>
+  <si>
+    <t>Effectiveness</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>Convenience</t>
+  </si>
+  <si>
+    <t>Program structure</t>
+  </si>
+  <si>
+    <t>Scenario Creation</t>
+  </si>
+  <si>
+    <t>Scenario Execution</t>
+  </si>
+  <si>
+    <t>Situation awareness</t>
+  </si>
+  <si>
+    <t>Reactiveness</t>
+  </si>
+  <si>
+    <t>Frustration</t>
+  </si>
+  <si>
+    <t>Willing to buy</t>
+  </si>
+  <si>
+    <t>Overall rating</t>
+  </si>
+  <si>
+    <t>Learn to use</t>
+  </si>
+  <si>
+    <t>Interest towards system</t>
+  </si>
+  <si>
+    <t>Block functions</t>
+  </si>
+  <si>
+    <t>Factor 2</t>
+  </si>
+  <si>
+    <t>Factor 1</t>
+  </si>
+  <si>
+    <t>Factor 3</t>
   </si>
 </sst>
 </file>
@@ -310,8 +359,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -327,6 +379,4817 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Factor 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$G$17,Sheet1!$H$17,Sheet1!$I$17,Sheet1!$O$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.81649658092772603</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1547005383792515</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.99442892601175314</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.56764621219754663</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$G$17,Sheet1!$H$17,Sheet1!$I$17,Sheet1!$O$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.81649658092772603</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1547005383792515</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.99442892601175314</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.56764621219754663</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$G$15,Sheet1!$H$15,Sheet1!$I$15,Sheet1!$O$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Creation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario Execution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Situation awareness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Satisfaction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$16,Sheet1!$H$16,Sheet1!$I$16,Sheet1!$O$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="492198472"/>
+        <c:axId val="492196120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="492198472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492196120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492196120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492198472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Factor 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$B$17,Sheet1!$D$17,Sheet1!$E$17,Sheet1!$L$17,Sheet1!$M$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$B$17,Sheet1!$D$17,Sheet1!$E$17,Sheet1!$L$17,Sheet1!$M$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$15,Sheet1!$D$15,Sheet1!$E$15,Sheet1!$L$15,Sheet1!$M$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ease of use</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learn to use</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Program structure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Efficiency</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Interest towards system</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$B$16,Sheet1!$D$16,Sheet1!$E$16,Sheet1!$L$16,Sheet1!$M$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="492186320"/>
+        <c:axId val="492187104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="492186320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492187104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492187104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492186320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Factor 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$17,Sheet1!$F$17,Sheet1!$J$17,Sheet1!$Q$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.70710678118654757</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.48304589153964811</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.52704627669472992</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.52704627669472992</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$C$17,Sheet1!$F$17,Sheet1!$J$17,Sheet1!$Q$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.70710678118654757</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.48304589153964811</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.52704627669472992</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.52704627669472992</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$C$15,Sheet1!$F$15,Sheet1!$J$15,Sheet1!$Q$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Convenience</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Block functions</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reactiveness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Overall rating</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$16,Sheet1!$F$16,Sheet1!$J$16,Sheet1!$Q$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="492197688"/>
+        <c:axId val="492194160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="492197688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492194160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492194160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492197688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Factor 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$B$17,Sheet1!$D$17,Sheet1!$E$17,Sheet1!$L$17,Sheet1!$M$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$B$17,Sheet1!$D$17,Sheet1!$E$17,Sheet1!$L$17,Sheet1!$M$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$B$15,Sheet1!$D$15,Sheet1!$E$15,Sheet1!$L$15,Sheet1!$M$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ease of use</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learn to use</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Program structure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Efficiency</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Interest towards system</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$B$16,Sheet1!$D$16,Sheet1!$E$16,Sheet1!$L$16,Sheet1!$M$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="492203960"/>
+        <c:axId val="492203568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="492203960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492203568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492203568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492203960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Usability metrics</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$B$20:$N$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.48304589153964811</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.52704627669472992</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.70710678118654757</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.52704627669472992</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.81649658092772603</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.1547005383792515</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.99442892601175314</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.56764621219754663</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$B$20:$N$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42163702135578385</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.48304589153964811</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.52704627669472992</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.70710678118654757</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.52704627669472992</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.81649658092772603</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.1547005383792515</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.99442892601175314</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.56764621219754663</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$17:$N$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="13"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Ease of use</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Learn to use</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Program structure</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Efficiency</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Interest towards system</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Block functions</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Reactiveness</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Convenience</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Overall rating</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Scenario Creation</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Scenario Execution</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Situation awareness</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Satisfaction</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Factor 1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Factor 2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Factor 3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="481633536"/>
+        <c:axId val="481633928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="481633536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481633928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481633928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481633536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3924300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2105025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="グラフ 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="グラフ 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,8 +5461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,8 +5637,8 @@
       <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
+      <c r="L2">
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -793,25 +5656,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z2">
         <v>21</v>
       </c>
       <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="s">
         <v>39</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>40</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -823,15 +5686,15 @@
         <v>2</v>
       </c>
       <c r="AF2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -861,10 +5724,10 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -882,19 +5745,19 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z3">
         <v>22</v>
       </c>
       <c r="AA3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC3">
         <v>2</v>
@@ -906,15 +5769,15 @@
         <v>4</v>
       </c>
       <c r="AF3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -944,10 +5807,10 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -965,16 +5828,16 @@
         <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z4">
         <v>24</v>
       </c>
       <c r="AA4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" t="s">
         <v>39</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>40</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -986,15 +5849,15 @@
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1024,10 +5887,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1048,10 +5911,10 @@
         <v>21</v>
       </c>
       <c r="AA5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s">
         <v>39</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>40</v>
       </c>
       <c r="AC5">
         <v>2</v>
@@ -1063,15 +5926,15 @@
         <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1101,10 +5964,10 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1122,19 +5985,19 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" t="s">
         <v>52</v>
-      </c>
-      <c r="T6" t="s">
-        <v>53</v>
       </c>
       <c r="Z6">
         <v>23</v>
       </c>
       <c r="AA6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" t="s">
         <v>39</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>40</v>
       </c>
       <c r="AC6">
         <v>3</v>
@@ -1146,15 +6009,15 @@
         <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1184,10 +6047,10 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
+        <v>54</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1205,22 +6068,22 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
         <v>56</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>57</v>
       </c>
-      <c r="T7" t="s">
-        <v>58</v>
-      </c>
       <c r="U7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1232,10 +6095,10 @@
         <v>34</v>
       </c>
       <c r="AA7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s">
         <v>39</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>40</v>
       </c>
       <c r="AC7">
         <v>4</v>
@@ -1247,15 +6110,15 @@
         <v>3</v>
       </c>
       <c r="AF7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1285,10 +6148,10 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1306,13 +6169,13 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X8">
         <v>2</v>
@@ -1324,10 +6187,10 @@
         <v>21</v>
       </c>
       <c r="AA8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" t="s">
         <v>39</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>40</v>
       </c>
       <c r="AC8">
         <v>2</v>
@@ -1339,15 +6202,15 @@
         <v>1</v>
       </c>
       <c r="AF8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1376,8 +6239,8 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
-        <v>35</v>
+      <c r="L9">
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1395,13 +6258,13 @@
         <v>2</v>
       </c>
       <c r="U9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V9">
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1413,11 +6276,11 @@
         <v>20</v>
       </c>
       <c r="AA9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="s">
         <v>39</v>
       </c>
-      <c r="AB9" t="s">
-        <v>40</v>
-      </c>
       <c r="AC9">
         <v>1</v>
       </c>
@@ -1428,15 +6291,15 @@
         <v>1</v>
       </c>
       <c r="AF9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1465,8 +6328,8 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
-        <v>63</v>
+      <c r="L10">
+        <v>2</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1484,42 +6347,42 @@
         <v>2</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V10">
         <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z10">
         <v>19</v>
       </c>
       <c r="AA10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s">
         <v>39</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG10" t="s">
         <v>40</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1549,10 +6412,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1570,23 +6433,23 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V11">
         <v>1</v>
       </c>
       <c r="W11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z11">
         <v>18</v>
       </c>
       <c r="AA11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s">
         <v>39</v>
       </c>
-      <c r="AB11" t="s">
-        <v>40</v>
-      </c>
       <c r="AC11">
         <v>1</v>
       </c>
@@ -1597,23 +6460,97 @@
         <v>1</v>
       </c>
       <c r="AF11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG11" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
       </c>
       <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" t="s">
         <v>67</v>
+      </c>
+      <c r="M15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <f>AVERAGE(B2:B11)</f>
@@ -1651,24 +6588,28 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
+      <c r="L16">
+        <f t="shared" ref="L16" si="1">AVERAGE(L2:L11)</f>
+        <v>1.2</v>
+      </c>
       <c r="M16">
-        <f t="shared" ref="M16:Q16" si="1">AVERAGE(M2:M11)</f>
+        <f t="shared" ref="M16:Q16" si="2">AVERAGE(M2:M11)</f>
         <v>1.2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="Z16">
@@ -1690,62 +6631,66 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <f>STDEV(B2:B11)</f>
         <v>0.316227766016838</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:J17" si="2">STDEV(C2:C11)</f>
+        <f t="shared" ref="C17:J17" si="3">STDEV(C2:C11)</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.316227766016838</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42163702135578385</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48304589153964811</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81649658092772603</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1547005383792515</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99442892601175314</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52704627669472992</v>
       </c>
+      <c r="L17">
+        <f t="shared" ref="L17" si="4">STDEV(L2:L11)</f>
+        <v>0.42163702135578385</v>
+      </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="3">STDEV(M2:M11)</f>
+        <f t="shared" ref="M17:Q17" si="5">STDEV(M2:M11)</f>
         <v>0.42163702135578385</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.69920589878010087</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.56764621219754663</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1352924243950935</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.52704627669472992</v>
       </c>
       <c r="Z17">
@@ -1767,5 +6712,351 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B11:AF20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.2</v>
+      </c>
+      <c r="G12">
+        <v>1.7</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2.1</v>
+      </c>
+      <c r="K12">
+        <v>1.5</v>
+      </c>
+      <c r="M12">
+        <v>1.2</v>
+      </c>
+      <c r="N12">
+        <v>1.2</v>
+      </c>
+      <c r="O12">
+        <v>1.4</v>
+      </c>
+      <c r="P12">
+        <v>1.9</v>
+      </c>
+      <c r="Q12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R12">
+        <v>1.5</v>
+      </c>
+      <c r="AA12">
+        <v>22.3</v>
+      </c>
+      <c r="AD12">
+        <v>1.8</v>
+      </c>
+      <c r="AE12">
+        <v>2.6</v>
+      </c>
+      <c r="AF12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>0.316227766016838</v>
+      </c>
+      <c r="D13">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="E13">
+        <v>0.316227766016838</v>
+      </c>
+      <c r="F13">
+        <v>0.42163702135578385</v>
+      </c>
+      <c r="G13">
+        <v>0.48304589153964811</v>
+      </c>
+      <c r="H13">
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="I13">
+        <v>1.1547005383792515</v>
+      </c>
+      <c r="J13">
+        <v>0.99442892601175314</v>
+      </c>
+      <c r="K13">
+        <v>0.52704627669472992</v>
+      </c>
+      <c r="M13">
+        <v>0.42163702135578385</v>
+      </c>
+      <c r="N13">
+        <v>0.42163702135578385</v>
+      </c>
+      <c r="O13">
+        <v>0.69920589878010087</v>
+      </c>
+      <c r="P13">
+        <v>0.56764621219754663</v>
+      </c>
+      <c r="Q13">
+        <v>1.1352924243950935</v>
+      </c>
+      <c r="R13">
+        <v>0.52704627669472992</v>
+      </c>
+      <c r="AA13">
+        <v>4.4733780424988847</v>
+      </c>
+      <c r="AD13">
+        <v>1.0327955589886446</v>
+      </c>
+      <c r="AE13">
+        <v>1.4298407059684815</v>
+      </c>
+      <c r="AF13">
+        <v>1.1352924243950935</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D19">
+        <v>1.2</v>
+      </c>
+      <c r="E19">
+        <v>1.2</v>
+      </c>
+      <c r="F19">
+        <v>1.2</v>
+      </c>
+      <c r="G19">
+        <v>1.7</v>
+      </c>
+      <c r="H19">
+        <v>1.5</v>
+      </c>
+      <c r="I19">
+        <v>1.5</v>
+      </c>
+      <c r="J19">
+        <v>1.5</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2.1</v>
+      </c>
+      <c r="N19">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.316227766016838</v>
+      </c>
+      <c r="C20">
+        <v>0.316227766016838</v>
+      </c>
+      <c r="D20">
+        <v>0.42163702135578385</v>
+      </c>
+      <c r="E20">
+        <v>0.42163702135578385</v>
+      </c>
+      <c r="F20">
+        <v>0.42163702135578385</v>
+      </c>
+      <c r="G20">
+        <v>0.48304589153964811</v>
+      </c>
+      <c r="H20">
+        <v>0.52704627669472992</v>
+      </c>
+      <c r="I20">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="J20">
+        <v>0.52704627669472992</v>
+      </c>
+      <c r="K20">
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="L20">
+        <v>1.1547005383792515</v>
+      </c>
+      <c r="M20">
+        <v>0.99442892601175314</v>
+      </c>
+      <c r="N20">
+        <v>0.56764621219754663</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Humanoids/ieeeconf/analysis.xlsx
+++ b/docs/Humanoids/ieeeconf/analysis.xlsx
@@ -427,7 +427,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -582,11 +581,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="492198472"/>
-        <c:axId val="492196120"/>
+        <c:axId val="437062368"/>
+        <c:axId val="437068248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492198472"/>
+        <c:axId val="437062368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492196120"/>
+        <c:crossAx val="437068248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -634,7 +633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492196120"/>
+        <c:axId val="437068248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -686,7 +685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492198472"/>
+        <c:crossAx val="437062368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -781,7 +780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -948,11 +946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="492186320"/>
-        <c:axId val="492187104"/>
+        <c:axId val="437059624"/>
+        <c:axId val="437063544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492186320"/>
+        <c:axId val="437059624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492187104"/>
+        <c:crossAx val="437063544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1000,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492187104"/>
+        <c:axId val="437063544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1050,7 +1048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492186320"/>
+        <c:crossAx val="437059624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1148,7 +1146,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1306,11 +1303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="492197688"/>
-        <c:axId val="492194160"/>
+        <c:axId val="437067072"/>
+        <c:axId val="437067464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492197688"/>
+        <c:axId val="437067072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492194160"/>
+        <c:crossAx val="437067464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1358,7 +1355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492194160"/>
+        <c:axId val="437067464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1408,7 +1405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492197688"/>
+        <c:crossAx val="437067072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1503,7 +1500,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1670,11 +1666,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="492203960"/>
-        <c:axId val="492203568"/>
+        <c:axId val="437062760"/>
+        <c:axId val="437064720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492203960"/>
+        <c:axId val="437062760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492203568"/>
+        <c:crossAx val="437064720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,7 +1718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492203568"/>
+        <c:axId val="437064720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1772,7 +1768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492203960"/>
+        <c:crossAx val="437062760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2148,12 +2144,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="481633536"/>
-        <c:axId val="481633928"/>
+        <c:gapWidth val="100"/>
+        <c:axId val="437058056"/>
+        <c:axId val="437066680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="481633536"/>
+        <c:axId val="437058056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,12 +2161,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2198,7 +2191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481633928"/>
+        <c:crossAx val="437066680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2206,7 +2199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481633928"/>
+        <c:axId val="437066680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2256,7 +2249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481633536"/>
+        <c:crossAx val="437058056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5461,7 +5454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="AB67" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:AG17"/>
     </sheetView>
   </sheetViews>
@@ -6720,8 +6713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
